--- a/만들고 싶은 게임 기획서와 기타등등/학원 포폴/학원 포폴 기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/학원 포폴/학원 포폴 기획서.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\학원 포폴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F188BA3-8419-4ECC-802F-ED4A9B59FC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2177CD9-A22D-453D-8833-D6BA0A7393E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="2430" windowWidth="21945" windowHeight="13050" activeTab="1" xr2:uid="{E9332293-0040-45AB-A694-E40D5AE4B778}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9332293-0040-45AB-A694-E40D5AE4B778}"/>
   </bookViews>
   <sheets>
-    <sheet name="협업 프로젝트 기획서" sheetId="1" r:id="rId1"/>
-    <sheet name="기업 협약 프로젝트" sheetId="2" r:id="rId2"/>
+    <sheet name="협업 기획서 준비 페이지" sheetId="3" r:id="rId1"/>
+    <sheet name="협업 프로젝트 기획서" sheetId="1" r:id="rId2"/>
+    <sheet name="기업혁약 기획서 준비 페이지" sheetId="4" r:id="rId3"/>
+    <sheet name="기업 협약 프로젝트" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +25,203 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>&lt;런 앤 펀치&gt;협업 프로젝트 기획서 준비하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투액션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수많은 탄알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 타격감이 있는 전투액션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막을 회피하는 재미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대 다수로 펼치는 긴장감 넘치는 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹 공격으로 전투한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각기 다른 속성을 가진 수많은 탄막을 회피해서 접근해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대 다수 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc는 근접, 주먹으로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각기 다른 개수의 탄알을 발사하는 적npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각기 다른 속성과 탄알 개수, 속도를 가지고 있는 적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc의 기술과 레벨 디자인, pc의 기술/ 외형에 대한 시나리오(스토리) 와 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓰려고 하는 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc의 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨디자인에 필요한 것들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯(pc /npc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필살기 게이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대강의 스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중세시대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마녀사냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들의 반란이 성공한 세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수백년 후, 마법사의 세상에서 태어난 주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차별과 모멸 속 반란을 꿈꾼다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 한것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 기술 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형과 컨셉, 시나리오 짜기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원들과 해서 결정한것들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,6 +582,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9507F9C-7FCF-4EAD-A451-9C709F420B88}">
+  <dimension ref="B2:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F56348-1350-496E-BC53-42BB34D01718}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -395,11 +790,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF33A2DE-6F67-4D6A-A4D8-63E5E65F163C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C56C7ED-C16B-421E-9BDA-B81B73F1E64B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/만들고 싶은 게임 기획서와 기타등등/학원 포폴/학원 포폴 기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/학원 포폴/학원 포폴 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\학원 포폴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2177CD9-A22D-453D-8833-D6BA0A7393E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A357BBA8-1BF3-4CDA-AED0-757083CD6209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9332293-0040-45AB-A694-E40D5AE4B778}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E9332293-0040-45AB-A694-E40D5AE4B778}"/>
   </bookViews>
   <sheets>
     <sheet name="협업 기획서 준비 페이지" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>&lt;런 앤 펀치&gt;협업 프로젝트 기획서 준비하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,174 @@
   </si>
   <si>
     <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가적인 무언가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시스템 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 게임을 만드려는 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc의 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc의 기술, pc 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc기술, npc 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트, 오브젝트 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 스토리(시나리오)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 플로우(pc, npc(투사체별로))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드, 이펙트, 연출, 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 게임을 만들고 싶은 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 게임에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pc 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. pc의 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pc의 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. npc의 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. npc의 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트에 대하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 오브젝트 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pc 전투 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. npc 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;런 앤 펀치, 시나리오/ 시스템 기획서&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,11 +419,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -265,8 +442,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9507F9C-7FCF-4EAD-A451-9C709F420B88}">
-  <dimension ref="B2:P30"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,6 +937,9 @@
       <c r="G28" t="s">
         <v>46</v>
       </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
@@ -765,10 +948,91 @@
       <c r="J29" t="s">
         <v>47</v>
       </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>45</v>
+      </c>
+      <c r="N30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -779,12 +1043,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F56348-1350-496E-BC53-42BB34D01718}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
